--- a/data/drought.xlsx
+++ b/data/drought.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
   <si>
     <t>CLE</t>
   </si>
@@ -333,6 +333,27 @@
   <si>
     <t>Summary:</t>
   </si>
+  <si>
+    <t>Karen Weise</t>
+  </si>
+  <si>
+    <t>Toph Tucker</t>
+  </si>
+  <si>
+    <t>@KYWeise</t>
+  </si>
+  <si>
+    <t>@tophtucker</t>
+  </si>
+  <si>
+    <t>Compiled by Bloomberg Businessweek</t>
+  </si>
+  <si>
+    <t>@bizweekgraphics</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -552,8 +573,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,8 +601,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -696,6 +722,8 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
@@ -707,6 +735,8 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="73" builtinId="5"/>
   </cellStyles>
@@ -2561,9 +2591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -2639,6 +2671,37 @@
     <row r="11" spans="1:2">
       <c r="B11" s="19" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
